--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12524.37268811458</v>
+        <v>-22079.58560899756</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13558439.23299076</v>
+        <v>13558439.23299077</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3284942.858268973</v>
+        <v>3284942.858268974</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.105877770346851</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>30.47290791452693</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="H11" t="n">
-        <v>30.47290791452693</v>
+        <v>6.105877770346847</v>
       </c>
       <c r="I11" t="n">
         <v>20.73465952076845</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.47290791452693</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>30.47290791452693</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>26.84053729111529</v>
       </c>
       <c r="H12" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>26.84053729111531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>26.84053729111529</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>30.47290791452693</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="I13" t="n">
-        <v>30.47290791452693</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.84053729111531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>30.47290791452703</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="T14" t="n">
-        <v>30.47290791452703</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>30.47290791452703</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="W14" t="n">
-        <v>26.84053729111539</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>26.8405372911153</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>26.8405372911153</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>26.84053729111539</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>30.47290791452703</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>30.47290791452703</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>30.47290791452703</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.47290791452703</v>
+        <v>26.8405372911153</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>30.47290791452703</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>26.84053729111539</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.47290791452703</v>
+        <v>30.47290791452693</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>18.54772008664321</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458685</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>39.94007777142561</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H18" t="n">
-        <v>43.90453113913414</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T18" t="n">
         <v>136.7309641056443</v>
@@ -2007,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
         <v>154.9126128011615</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>143.9896591954682</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.483834928314013</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>268.3595409023109</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>199.4130558061289</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458685</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H21" t="n">
-        <v>43.9045311391345</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T21" t="n">
         <v>136.7309641056443</v>
@@ -2219,7 +2219,7 @@
         <v>182.8596299154304</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>202.9234074721267</v>
       </c>
       <c r="W21" t="n">
         <v>194.556163395115</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>60.82684327523614</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>54.24885151651276</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>95.96895325536306</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>372.0449489802483</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D24" t="n">
-        <v>102.8015588998678</v>
+        <v>102.801558899868</v>
       </c>
       <c r="E24" t="n">
         <v>103.6549143897921</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T24" t="n">
         <v>136.7309641056443</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,16 +2484,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.67885812039863</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.0119441583503</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>68.33111886995901</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>215.6778399784232</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H27" t="n">
-        <v>43.90453113913449</v>
+        <v>43.90453113913502</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>136.7309641056443</v>
       </c>
       <c r="U27" t="n">
-        <v>182.859629915431</v>
+        <v>182.8596299154304</v>
       </c>
       <c r="V27" t="n">
         <v>202.9234074721264</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>12.67075011712894</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>139.4744963040045</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>244.082150230744</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.5660300744983</v>
+        <v>256.6795666537151</v>
       </c>
       <c r="H29" t="n">
         <v>277.176001558223</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>63.32136466519032</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T30" t="n">
         <v>136.7309641056443</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>154.570497098747</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T31" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>267.1782486019823</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>80.6983480668907</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>198.1437240618013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>148.4329133982003</v>
+        <v>19.13906086916379</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>394.360032908399</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T35" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>114.0468856911597</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H36" t="n">
-        <v>43.90453113913502</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.32136466518995</v>
+        <v>63.32136466519032</v>
       </c>
       <c r="T36" t="n">
         <v>136.7309641056443</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H37" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>138.5935057496336</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>20.45448659217104</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>273.2196007086561</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>61.8547112436999</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,16 +3663,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>129.3119580436947</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.8185422817731</v>
@@ -3711,7 +3711,7 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>54.24885151651299</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.1787029805376</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.4269918064969</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H42" t="n">
-        <v>43.90453113913458</v>
+        <v>43.90453113913502</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>70.32980547751291</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>210.6442780286255</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U43" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>11.02196440710866</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8107908974445</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T44" t="n">
         <v>211.1448086517629</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H46" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I46" t="n">
-        <v>75.43872475250879</v>
+        <v>43.1251685533207</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>74.83762347290543</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121.8916316581077</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="C11" t="n">
-        <v>91.11091659292899</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="D11" t="n">
-        <v>91.11091659292899</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="E11" t="n">
-        <v>91.11091659292899</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="F11" t="n">
-        <v>84.94336328954833</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="G11" t="n">
-        <v>54.1626482243696</v>
+        <v>29.54948646257154</v>
       </c>
       <c r="H11" t="n">
         <v>23.38193315919089</v>
@@ -5044,16 +5044,16 @@
         <v>3.417978136102533</v>
       </c>
       <c r="K11" t="n">
-        <v>13.13197138347071</v>
+        <v>13.13197138347078</v>
       </c>
       <c r="L11" t="n">
-        <v>31.17957527878664</v>
+        <v>31.1795752787867</v>
       </c>
       <c r="M11" t="n">
-        <v>56.40729559797713</v>
+        <v>56.40729559797717</v>
       </c>
       <c r="N11" t="n">
-        <v>82.79297066826203</v>
+        <v>82.79297066826207</v>
       </c>
       <c r="O11" t="n">
         <v>105.5412354747655</v>
@@ -5068,25 +5068,25 @@
         <v>121.8916316581077</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8916316581077</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8916316581077</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8916316581077</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="V11" t="n">
-        <v>121.8916316581077</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="W11" t="n">
-        <v>121.8916316581077</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="X11" t="n">
-        <v>121.8916316581077</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.8916316581077</v>
+        <v>60.33020152775025</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63.99926276351959</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="C12" t="n">
-        <v>63.99926276351959</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="D12" t="n">
-        <v>33.21854769834087</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="E12" t="n">
-        <v>33.21854769834087</v>
+        <v>29.54948646257154</v>
       </c>
       <c r="F12" t="n">
-        <v>33.21854769834087</v>
+        <v>29.54948646257154</v>
       </c>
       <c r="G12" t="n">
-        <v>33.21854769834087</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="H12" t="n">
         <v>2.437832633162154</v>
@@ -5126,19 +5126,19 @@
         <v>10.90930567516432</v>
       </c>
       <c r="L12" t="n">
-        <v>29.8276595625555</v>
+        <v>29.82765956255548</v>
       </c>
       <c r="M12" t="n">
-        <v>55.04997730602886</v>
+        <v>55.04997730602884</v>
       </c>
       <c r="N12" t="n">
-        <v>83.28125954763213</v>
+        <v>83.2812595476321</v>
       </c>
       <c r="O12" t="n">
-        <v>105.4966506502405</v>
+        <v>105.4966506502404</v>
       </c>
       <c r="P12" t="n">
-        <v>120.1848372890271</v>
+        <v>120.184837289027</v>
       </c>
       <c r="Q12" t="n">
         <v>121.8916316581077</v>
@@ -5159,13 +5159,13 @@
         <v>121.8916316581077</v>
       </c>
       <c r="W12" t="n">
-        <v>94.77997782869831</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="X12" t="n">
-        <v>94.77997782869831</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y12" t="n">
-        <v>94.77997782869831</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.77997782869831</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="C13" t="n">
-        <v>94.77997782869831</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="D13" t="n">
-        <v>94.77997782869831</v>
+        <v>60.33020152775025</v>
       </c>
       <c r="E13" t="n">
-        <v>94.77997782869831</v>
+        <v>33.21854769834086</v>
       </c>
       <c r="F13" t="n">
-        <v>94.77997782869831</v>
+        <v>33.21854769834086</v>
       </c>
       <c r="G13" t="n">
-        <v>63.99926276351959</v>
+        <v>33.21854769834086</v>
       </c>
       <c r="H13" t="n">
-        <v>33.21854769834087</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="I13" t="n">
         <v>2.437832633162154</v>
       </c>
       <c r="J13" t="n">
-        <v>2.437832633162154</v>
+        <v>32.60601146854381</v>
       </c>
       <c r="K13" t="n">
-        <v>2.437832633162154</v>
+        <v>32.60601146854381</v>
       </c>
       <c r="L13" t="n">
-        <v>32.60601146854381</v>
+        <v>34.56212530175566</v>
       </c>
       <c r="M13" t="n">
-        <v>62.77419030392547</v>
+        <v>37.15404406128402</v>
       </c>
       <c r="N13" t="n">
-        <v>66.58132698829209</v>
+        <v>40.96118074565063</v>
       </c>
       <c r="O13" t="n">
-        <v>96.74950582367376</v>
+        <v>61.55527398734436</v>
       </c>
       <c r="P13" t="n">
-        <v>96.74950582367376</v>
+        <v>91.72345282272602</v>
       </c>
       <c r="Q13" t="n">
         <v>121.8916316581077</v>
@@ -5229,22 +5229,22 @@
         <v>121.8916316581077</v>
       </c>
       <c r="T13" t="n">
-        <v>121.8916316581077</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8916316581077</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="V13" t="n">
-        <v>121.8916316581077</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="W13" t="n">
-        <v>121.8916316581077</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="X13" t="n">
-        <v>121.8916316581077</v>
+        <v>91.11091659292896</v>
       </c>
       <c r="Y13" t="n">
-        <v>94.77997782869831</v>
+        <v>91.11091659292896</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="C14" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="D14" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="E14" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="F14" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="G14" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="H14" t="n">
-        <v>2.437832633162162</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="I14" t="n">
-        <v>2.437832633162162</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="J14" t="n">
-        <v>3.417978136102569</v>
+        <v>3.417978136102548</v>
       </c>
       <c r="K14" t="n">
-        <v>13.13197138347081</v>
+        <v>13.1319713834708</v>
       </c>
       <c r="L14" t="n">
-        <v>31.17957527878679</v>
+        <v>31.17957527878669</v>
       </c>
       <c r="M14" t="n">
-        <v>56.40729559797735</v>
+        <v>56.40729559797721</v>
       </c>
       <c r="N14" t="n">
-        <v>82.79297066826233</v>
+        <v>82.79297066826211</v>
       </c>
       <c r="O14" t="n">
-        <v>105.5412354747659</v>
+        <v>105.5412354747656</v>
       </c>
       <c r="P14" t="n">
-        <v>119.3499405478295</v>
+        <v>119.3499405478291</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8916316581081</v>
+        <v>91.110916592929</v>
       </c>
       <c r="T14" t="n">
-        <v>91.1109165929293</v>
+        <v>60.33020152775028</v>
       </c>
       <c r="U14" t="n">
-        <v>91.1109165929293</v>
+        <v>60.33020152775028</v>
       </c>
       <c r="V14" t="n">
-        <v>60.33020152775048</v>
+        <v>29.54948646257155</v>
       </c>
       <c r="W14" t="n">
-        <v>33.21854769834098</v>
+        <v>29.54948646257155</v>
       </c>
       <c r="X14" t="n">
-        <v>33.21854769834098</v>
+        <v>29.54948646257155</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60.33020152775048</v>
+        <v>60.33020152775028</v>
       </c>
       <c r="C15" t="n">
-        <v>60.33020152775048</v>
+        <v>29.54948646257155</v>
       </c>
       <c r="D15" t="n">
-        <v>60.33020152775048</v>
+        <v>29.54948646257155</v>
       </c>
       <c r="E15" t="n">
-        <v>60.33020152775048</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="F15" t="n">
-        <v>60.33020152775048</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="G15" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="H15" t="n">
-        <v>2.437832633162162</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="I15" t="n">
-        <v>2.437832633162162</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="J15" t="n">
-        <v>2.437832633162162</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="K15" t="n">
-        <v>10.90930567516438</v>
+        <v>10.90930567516429</v>
       </c>
       <c r="L15" t="n">
-        <v>29.82765956255562</v>
+        <v>29.82765956255546</v>
       </c>
       <c r="M15" t="n">
-        <v>55.04997730602909</v>
+        <v>55.04997730602885</v>
       </c>
       <c r="N15" t="n">
-        <v>83.28125954763243</v>
+        <v>83.28125954763213</v>
       </c>
       <c r="O15" t="n">
-        <v>105.4966506502408</v>
+        <v>105.4966506502405</v>
       </c>
       <c r="P15" t="n">
-        <v>120.1848372890274</v>
+        <v>120.1848372890271</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="R15" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="S15" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="T15" t="n">
-        <v>91.1109165929293</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U15" t="n">
-        <v>91.1109165929293</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="V15" t="n">
-        <v>60.33020152775048</v>
+        <v>91.110916592929</v>
       </c>
       <c r="W15" t="n">
-        <v>60.33020152775048</v>
+        <v>91.110916592929</v>
       </c>
       <c r="X15" t="n">
-        <v>60.33020152775048</v>
+        <v>91.110916592929</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.33020152775048</v>
+        <v>91.110916592929</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="C16" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="D16" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="E16" t="n">
-        <v>33.21854769834098</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="F16" t="n">
-        <v>2.437832633162162</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="G16" t="n">
-        <v>2.437832633162162</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="H16" t="n">
-        <v>2.437832633162162</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="I16" t="n">
-        <v>2.437832633162162</v>
+        <v>2.437832633162154</v>
       </c>
       <c r="J16" t="n">
-        <v>29.21535133692288</v>
+        <v>32.60601146854382</v>
       </c>
       <c r="K16" t="n">
-        <v>29.21535133692288</v>
+        <v>32.60601146854382</v>
       </c>
       <c r="L16" t="n">
-        <v>31.17146517013477</v>
+        <v>34.56212530175568</v>
       </c>
       <c r="M16" t="n">
-        <v>61.33964400551653</v>
+        <v>37.15404406128404</v>
       </c>
       <c r="N16" t="n">
-        <v>91.50782284089829</v>
+        <v>61.33964400551635</v>
       </c>
       <c r="O16" t="n">
-        <v>91.72345282272636</v>
+        <v>61.55527398734439</v>
       </c>
       <c r="P16" t="n">
-        <v>91.72345282272636</v>
+        <v>91.72345282272606</v>
       </c>
       <c r="Q16" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="R16" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="S16" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="T16" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U16" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="V16" t="n">
-        <v>94.77997782869863</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W16" t="n">
-        <v>94.77997782869863</v>
+        <v>91.110916592929</v>
       </c>
       <c r="X16" t="n">
-        <v>94.77997782869863</v>
+        <v>60.33020152775028</v>
       </c>
       <c r="Y16" t="n">
-        <v>63.99926276351981</v>
+        <v>29.54948646257155</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1289.061466450292</v>
+        <v>1329.404979350723</v>
       </c>
       <c r="C17" t="n">
-        <v>862.1607364635923</v>
+        <v>1329.404979350723</v>
       </c>
       <c r="D17" t="n">
-        <v>438.8681156485926</v>
+        <v>906.1123585357236</v>
       </c>
       <c r="E17" t="n">
-        <v>438.8681156485926</v>
+        <v>480.1354186835812</v>
       </c>
       <c r="F17" t="n">
-        <v>438.8681156485926</v>
+        <v>55.01123687298139</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
         <v>184.2963411149079</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303099</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103476</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N17" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.927517189219</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R17" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1749.253343642252</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1708.909830741822</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U17" t="n">
-        <v>1708.909830741822</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V17" t="n">
-        <v>1708.909830741822</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W17" t="n">
-        <v>1708.909830741822</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X17" t="n">
-        <v>1708.909830741822</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="Y17" t="n">
-        <v>1708.909830741822</v>
+        <v>1749.253343642253</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432369</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607417</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760267</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489639</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318681</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004291</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968657</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>433.5238427951066</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>559.2924683663466</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>735.9313191969954</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>945.2060176780103</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N18" t="n">
-        <v>1162.360999510326</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1357.404666497813</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
-        <v>1510.802781344165</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W18" t="n">
-        <v>1025.534031643344</v>
+        <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100073</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967632997</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>371.5655020727056</v>
+        <v>284.4494612727175</v>
       </c>
       <c r="C19" t="n">
-        <v>199.5929389516216</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="D19" t="n">
-        <v>36.27616607839226</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="E19" t="n">
-        <v>36.27616607839226</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="F19" t="n">
-        <v>36.27616607839226</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839226</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839226</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
         <v>148.0721041840598</v>
@@ -5679,46 +5679,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>912.7564163623082</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M19" t="n">
-        <v>1055.701197344775</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.699903436723</v>
+        <v>1107.808470031875</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259048</v>
+        <v>1556.72602525198</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973491</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933976</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.530066266136</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.530066266136</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="U19" t="n">
-        <v>1365.38836474864</v>
+        <v>1500.085966068694</v>
       </c>
       <c r="V19" t="n">
-        <v>1083.676897356669</v>
+        <v>1218.374498676723</v>
       </c>
       <c r="W19" t="n">
-        <v>808.8244935291823</v>
+        <v>943.5220948492361</v>
       </c>
       <c r="X19" t="n">
-        <v>566.2605969749874</v>
+        <v>700.9581982950411</v>
       </c>
       <c r="Y19" t="n">
-        <v>561.7314707847712</v>
+        <v>474.6154299847831</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.1768960650921</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="C20" t="n">
-        <v>36.27616607839227</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="D20" t="n">
-        <v>36.27616607839227</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="E20" t="n">
-        <v>36.27616607839227</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="F20" t="n">
-        <v>36.27616607839227</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G20" t="n">
-        <v>36.27616607839227</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H20" t="n">
         <v>36.27616607839227</v>
@@ -5752,16 +5752,16 @@
         <v>68.08893453872668</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149079</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303098</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5776,28 +5776,28 @@
         <v>1740.92751718922</v>
       </c>
       <c r="R20" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
         <v>1749.253343642253</v>
       </c>
       <c r="T20" t="n">
-        <v>1535.975759145522</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U20" t="n">
-        <v>1535.975759145522</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V20" t="n">
-        <v>1535.975759145522</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="W20" t="n">
-        <v>1139.584409445869</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="X20" t="n">
-        <v>1139.584409445869</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="Y20" t="n">
-        <v>734.2471394007597</v>
+        <v>920.2712038954128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C21" t="n">
-        <v>475.9308838607419</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760269</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
         <v>80.62417733004327</v>
@@ -5828,25 +5828,25 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I21" t="n">
-        <v>51.80960935527472</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J21" t="n">
-        <v>313.1315388413254</v>
+        <v>410.0665369506949</v>
       </c>
       <c r="K21" t="n">
-        <v>438.9001644125653</v>
+        <v>535.8351625219349</v>
       </c>
       <c r="L21" t="n">
-        <v>615.5390152432142</v>
+        <v>911.0584556169655</v>
       </c>
       <c r="M21" t="n">
-        <v>824.813713724229</v>
+        <v>1120.33315409798</v>
       </c>
       <c r="N21" t="n">
-        <v>1041.968695556545</v>
+        <v>1337.488135930297</v>
       </c>
       <c r="O21" t="n">
-        <v>1237.012362544032</v>
+        <v>1532.531802917783</v>
       </c>
       <c r="P21" t="n">
         <v>1685.929917764136</v>
@@ -5855,13 +5855,13 @@
         <v>1780.360625738642</v>
       </c>
       <c r="R21" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S21" t="n">
         <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U21" t="n">
         <v>1427.028547670861</v>
@@ -5873,10 +5873,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1088.137999643809</v>
+        <v>811.39848650915</v>
       </c>
       <c r="C22" t="n">
-        <v>916.1654365227246</v>
+        <v>811.39848650915</v>
       </c>
       <c r="D22" t="n">
-        <v>752.8486636494953</v>
+        <v>648.0817136359207</v>
       </c>
       <c r="E22" t="n">
         <v>586.6404578023488</v>
@@ -5916,46 +5916,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.25223946253</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N22" t="n">
-        <v>1102.250945554478</v>
+        <v>1107.808470031875</v>
       </c>
       <c r="O22" t="n">
-        <v>1551.168500774583</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973491</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q22" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1802.007452933976</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1802.007452933976</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T22" t="n">
-        <v>1802.007452933976</v>
+        <v>1562.016618765574</v>
       </c>
       <c r="U22" t="n">
-        <v>1802.007452933976</v>
+        <v>1562.016618765574</v>
       </c>
       <c r="V22" t="n">
-        <v>1802.007452933976</v>
+        <v>1280.305151373603</v>
       </c>
       <c r="W22" t="n">
-        <v>1747.210633220327</v>
+        <v>1280.305151373603</v>
       </c>
       <c r="X22" t="n">
-        <v>1504.646736666132</v>
+        <v>1037.741254819408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.303968355874</v>
+        <v>811.39848650915</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C23" t="n">
-        <v>1386.907573932914</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D23" t="n">
-        <v>1289.969237311335</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E23" t="n">
-        <v>863.9922974591925</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F23" t="n">
-        <v>438.8681156485927</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G23" t="n">
-        <v>36.27616607839227</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H23" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I23" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J23" t="n">
-        <v>184.2963411149083</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K23" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L23" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M23" t="n">
         <v>862.6140377103479</v>
@@ -6016,25 +6016,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S23" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T23" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U23" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V23" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W23" t="n">
-        <v>1813.808303919614</v>
+        <v>1094.64685356624</v>
       </c>
       <c r="X23" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="Y23" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C24" t="n">
-        <v>475.9308838607419</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D24" t="n">
-        <v>372.0909253760269</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E24" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F24" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G24" t="n">
         <v>80.62417733004327</v>
@@ -6071,25 +6071,25 @@
         <v>141.4213503255156</v>
       </c>
       <c r="K24" t="n">
-        <v>267.1899758967555</v>
+        <v>267.1899758967556</v>
       </c>
       <c r="L24" t="n">
-        <v>443.8288267274044</v>
+        <v>443.8288267274046</v>
       </c>
       <c r="M24" t="n">
-        <v>653.1035252084193</v>
+        <v>653.1035252084196</v>
       </c>
       <c r="N24" t="n">
-        <v>1102.021080428524</v>
+        <v>870.2585070407357</v>
       </c>
       <c r="O24" t="n">
-        <v>1297.06474741601</v>
+        <v>1065.302174028222</v>
       </c>
       <c r="P24" t="n">
-        <v>1450.462862262363</v>
+        <v>1225.987570233632</v>
       </c>
       <c r="Q24" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R24" t="n">
         <v>1813.808303919614</v>
@@ -6098,22 +6098,22 @@
         <v>1749.847329510331</v>
       </c>
       <c r="T24" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U24" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V24" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W24" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X24" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y24" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>708.9005513302392</v>
+        <v>783.0484701456943</v>
       </c>
       <c r="C25" t="n">
-        <v>536.9279882091552</v>
+        <v>611.0759070246103</v>
       </c>
       <c r="D25" t="n">
-        <v>373.6112153359259</v>
+        <v>447.759134151381</v>
       </c>
       <c r="E25" t="n">
-        <v>373.6112153359259</v>
+        <v>281.5509283042345</v>
       </c>
       <c r="F25" t="n">
-        <v>201.7494411104863</v>
+        <v>109.6891540787949</v>
       </c>
       <c r="G25" t="n">
-        <v>36.27616607839227</v>
+        <v>109.6891540787949</v>
       </c>
       <c r="H25" t="n">
         <v>36.27616607839227</v>
@@ -6153,13 +6153,13 @@
         <v>463.838861142204</v>
       </c>
       <c r="L25" t="n">
-        <v>606.7836421246716</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M25" t="n">
-        <v>1055.701197344776</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N25" t="n">
-        <v>1152.699903436724</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O25" t="n">
         <v>1238.993031259048</v>
@@ -6183,16 +6183,16 @@
         <v>1533.666602402118</v>
       </c>
       <c r="V25" t="n">
-        <v>1533.666602402118</v>
+        <v>1251.955135010147</v>
       </c>
       <c r="W25" t="n">
-        <v>1258.814198574631</v>
+        <v>1251.955135010147</v>
       </c>
       <c r="X25" t="n">
-        <v>1016.250302020436</v>
+        <v>1009.391238455952</v>
       </c>
       <c r="Y25" t="n">
-        <v>899.0665200423048</v>
+        <v>783.0484701456943</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>933.0136296510702</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="C26" t="n">
-        <v>933.0136296510702</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D26" t="n">
-        <v>933.0136296510702</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E26" t="n">
-        <v>933.0136296510702</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F26" t="n">
-        <v>507.8894478404704</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G26" t="n">
-        <v>105.2974982702701</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H26" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I26" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J26" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K26" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L26" t="n">
         <v>598.9981372303102</v>
       </c>
       <c r="M26" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N26" t="n">
         <v>1131.245262923652</v>
@@ -6253,25 +6253,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S26" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T26" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U26" t="n">
-        <v>1749.253343642253</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V26" t="n">
-        <v>1749.253343642253</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W26" t="n">
-        <v>1352.8619939426</v>
+        <v>1273.181799247285</v>
       </c>
       <c r="X26" t="n">
-        <v>1352.8619939426</v>
+        <v>861.461800415032</v>
       </c>
       <c r="Y26" t="n">
-        <v>1352.8619939426</v>
+        <v>456.1245303699224</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C27" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D27" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760276</v>
       </c>
       <c r="E27" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489648</v>
       </c>
       <c r="F27" t="n">
-        <v>173.7431613318684</v>
+        <v>173.743161331869</v>
       </c>
       <c r="G27" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004382</v>
       </c>
       <c r="H27" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I27" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J27" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K27" t="n">
-        <v>535.8351625219349</v>
+        <v>628.9641045014115</v>
       </c>
       <c r="L27" t="n">
-        <v>712.4740133525838</v>
+        <v>805.6029553320604</v>
       </c>
       <c r="M27" t="n">
-        <v>921.7487118335989</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.903693665915</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O27" t="n">
-        <v>1333.947360653402</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P27" t="n">
-        <v>1487.345475499754</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q27" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R27" t="n">
         <v>1813.808303919614</v>
@@ -6338,19 +6338,19 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U27" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V27" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W27" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X27" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y27" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="28">
@@ -6390,16 +6390,16 @@
         <v>463.838861142204</v>
       </c>
       <c r="L28" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.25223946253</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N28" t="n">
-        <v>1454.169794682635</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O28" t="n">
-        <v>1540.462922504959</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P28" t="n">
         <v>1622.490343973492</v>
@@ -6408,25 +6408,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R28" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T28" t="n">
-        <v>1645.530066266137</v>
+        <v>1801.009566427565</v>
       </c>
       <c r="U28" t="n">
-        <v>1645.530066266137</v>
+        <v>1520.867864910069</v>
       </c>
       <c r="V28" t="n">
-        <v>1645.530066266137</v>
+        <v>1520.867864910069</v>
       </c>
       <c r="W28" t="n">
-        <v>1645.530066266137</v>
+        <v>1520.867864910069</v>
       </c>
       <c r="X28" t="n">
-        <v>1504.646736666132</v>
+        <v>1278.303968355874</v>
       </c>
       <c r="Y28" t="n">
         <v>1278.303968355874</v>
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1813.808303919614</v>
+        <v>575.5242147773197</v>
       </c>
       <c r="C29" t="n">
-        <v>1813.808303919614</v>
+        <v>575.5242147773197</v>
       </c>
       <c r="D29" t="n">
-        <v>1390.515683104614</v>
+        <v>575.5242147773197</v>
       </c>
       <c r="E29" t="n">
-        <v>1143.968056608913</v>
+        <v>575.5242147773197</v>
       </c>
       <c r="F29" t="n">
-        <v>718.8438747983129</v>
+        <v>575.5242147773197</v>
       </c>
       <c r="G29" t="n">
         <v>316.2519252281125</v>
       </c>
       <c r="H29" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I29" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J29" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K29" t="n">
         <v>366.7061291250299</v>
       </c>
       <c r="L29" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M29" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N29" t="n">
         <v>1131.245262923652</v>
@@ -6490,25 +6490,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S29" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T29" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U29" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V29" t="n">
-        <v>1813.808303919614</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W29" t="n">
-        <v>1813.808303919614</v>
+        <v>995.3725790688497</v>
       </c>
       <c r="X29" t="n">
-        <v>1813.808303919614</v>
+        <v>995.3725790688497</v>
       </c>
       <c r="Y29" t="n">
-        <v>1813.808303919614</v>
+        <v>995.3725790688497</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C30" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D30" t="n">
         <v>372.090925376027</v>
       </c>
       <c r="E30" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F30" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G30" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H30" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I30" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J30" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K30" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L30" t="n">
-        <v>712.4740133525838</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M30" t="n">
-        <v>921.7487118335988</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O30" t="n">
-        <v>1333.947360653402</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P30" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q30" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R30" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S30" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T30" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U30" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V30" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W30" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X30" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y30" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>914.7448361746924</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C31" t="n">
-        <v>742.7722730536084</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D31" t="n">
-        <v>586.6404578023488</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E31" t="n">
-        <v>586.6404578023488</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F31" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G31" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I31" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J31" t="n">
-        <v>70.15038753583896</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K31" t="n">
-        <v>138.6345353799611</v>
+        <v>313.7424672741921</v>
       </c>
       <c r="L31" t="n">
-        <v>356.3700675499419</v>
+        <v>406.2382903744142</v>
       </c>
       <c r="M31" t="n">
-        <v>805.2876227700463</v>
+        <v>855.1558455945186</v>
       </c>
       <c r="N31" t="n">
-        <v>1254.205177990151</v>
+        <v>1304.073400814623</v>
       </c>
       <c r="O31" t="n">
-        <v>1703.122733210255</v>
+        <v>1390.366528636947</v>
       </c>
       <c r="P31" t="n">
         <v>1773.863841351391</v>
@@ -6648,25 +6648,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S31" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T31" t="n">
-        <v>1573.817469751211</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U31" t="n">
-        <v>1573.817469751211</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.817469751211</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="W31" t="n">
-        <v>1573.817469751211</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X31" t="n">
-        <v>1331.253573197016</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y31" t="n">
-        <v>1104.910804886758</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1393.959939628083</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="C32" t="n">
-        <v>967.0592096413836</v>
+        <v>1064.137473279194</v>
       </c>
       <c r="D32" t="n">
-        <v>543.7665888263839</v>
+        <v>1064.137473279194</v>
       </c>
       <c r="E32" t="n">
-        <v>117.7896489742415</v>
+        <v>1064.137473279194</v>
       </c>
       <c r="F32" t="n">
-        <v>36.27616607839227</v>
+        <v>639.0132914685939</v>
       </c>
       <c r="G32" t="n">
-        <v>36.27616607839227</v>
+        <v>236.4213418983936</v>
       </c>
       <c r="H32" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I32" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J32" t="n">
         <v>184.296341114908</v>
@@ -6706,7 +6706,7 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L32" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M32" t="n">
         <v>862.6140377103479</v>
@@ -6727,25 +6727,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S32" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T32" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U32" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V32" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W32" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="X32" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="Y32" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I33" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J33" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K33" t="n">
-        <v>267.1899758967556</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L33" t="n">
-        <v>716.1075311168599</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M33" t="n">
-        <v>925.3822295978749</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N33" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O33" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P33" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q33" t="n">
         <v>1674.905125453736</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>358.1809649552342</v>
+        <v>769.4004042875496</v>
       </c>
       <c r="C34" t="n">
-        <v>186.2084018341502</v>
+        <v>597.4278411664656</v>
       </c>
       <c r="D34" t="n">
-        <v>186.2084018341502</v>
+        <v>434.1110682932363</v>
       </c>
       <c r="E34" t="n">
-        <v>36.27616607839227</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="F34" t="n">
-        <v>36.27616607839227</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G34" t="n">
-        <v>36.27616607839227</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H34" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I34" t="n">
         <v>36.27616607839227</v>
@@ -6864,7 +6864,7 @@
         <v>463.838861142204</v>
       </c>
       <c r="L34" t="n">
-        <v>912.7564163623083</v>
+        <v>606.7836421246716</v>
       </c>
       <c r="M34" t="n">
         <v>1055.701197344776</v>
@@ -6891,19 +6891,19 @@
         <v>1573.817469751211</v>
       </c>
       <c r="U34" t="n">
-        <v>1573.817469751211</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V34" t="n">
-        <v>1292.10600235924</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W34" t="n">
-        <v>1017.253598531753</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="X34" t="n">
-        <v>774.6897019775578</v>
+        <v>769.4004042875496</v>
       </c>
       <c r="Y34" t="n">
-        <v>548.3469336672998</v>
+        <v>769.4004042875496</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>857.9122544776335</v>
+        <v>864.845055500735</v>
       </c>
       <c r="C35" t="n">
-        <v>857.9122544776335</v>
+        <v>864.845055500735</v>
       </c>
       <c r="D35" t="n">
-        <v>434.6196336626338</v>
+        <v>864.845055500735</v>
       </c>
       <c r="E35" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F35" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G35" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H35" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I35" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J35" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149082</v>
       </c>
       <c r="K35" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L35" t="n">
-        <v>598.9981372303107</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M35" t="n">
-        <v>862.6140377103484</v>
+        <v>862.614037710348</v>
       </c>
       <c r="N35" t="n">
         <v>1131.245262923652</v>
@@ -6967,22 +6967,22 @@
         <v>1749.253343642253</v>
       </c>
       <c r="T35" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U35" t="n">
-        <v>1277.760618769164</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V35" t="n">
-        <v>1277.760618769164</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W35" t="n">
-        <v>1277.760618769164</v>
+        <v>1276.565054332988</v>
       </c>
       <c r="X35" t="n">
-        <v>1277.760618769164</v>
+        <v>864.845055500735</v>
       </c>
       <c r="Y35" t="n">
-        <v>1277.760618769164</v>
+        <v>864.845055500735</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C36" t="n">
-        <v>475.9308838607426</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D36" t="n">
-        <v>372.0909253760276</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E36" t="n">
-        <v>267.3889916489648</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F36" t="n">
-        <v>173.743161331869</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G36" t="n">
-        <v>80.62417733004382</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H36" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I36" t="n">
-        <v>75.26691519968659</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J36" t="n">
-        <v>433.5238427951067</v>
+        <v>117.9640444811038</v>
       </c>
       <c r="K36" t="n">
-        <v>628.9641045014113</v>
+        <v>243.7326700523438</v>
       </c>
       <c r="L36" t="n">
-        <v>805.6029553320602</v>
+        <v>615.5390152432137</v>
       </c>
       <c r="M36" t="n">
-        <v>1014.877653813075</v>
+        <v>824.8137137242288</v>
       </c>
       <c r="N36" t="n">
-        <v>1232.032635645391</v>
+        <v>1041.968695556545</v>
       </c>
       <c r="O36" t="n">
-        <v>1427.076302632878</v>
+        <v>1237.012362544032</v>
       </c>
       <c r="P36" t="n">
-        <v>1580.474417479231</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q36" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738642</v>
       </c>
       <c r="R36" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S36" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T36" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U36" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V36" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W36" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X36" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y36" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>846.4639925384733</v>
+        <v>1088.137999643809</v>
       </c>
       <c r="C37" t="n">
-        <v>674.4914294173893</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="D37" t="n">
-        <v>511.17465654416</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9664506970136</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F37" t="n">
-        <v>173.104676471574</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G37" t="n">
-        <v>173.104676471574</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H37" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J37" t="n">
         <v>148.0721041840598</v>
@@ -7104,10 +7104,10 @@
         <v>556.3346842424261</v>
       </c>
       <c r="M37" t="n">
-        <v>654.3880318200453</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N37" t="n">
-        <v>790.075476038944</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O37" t="n">
         <v>1238.993031259048</v>
@@ -7119,28 +7119,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R37" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T37" t="n">
-        <v>1645.530066266137</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U37" t="n">
-        <v>1645.530066266137</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V37" t="n">
-        <v>1505.536626114992</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.536626114992</v>
+        <v>1298.965065923724</v>
       </c>
       <c r="X37" t="n">
-        <v>1262.972729560797</v>
+        <v>1298.965065923724</v>
       </c>
       <c r="Y37" t="n">
-        <v>1036.629961250539</v>
+        <v>1278.303968355874</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>592.2313198833207</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="C38" t="n">
-        <v>592.2313198833207</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="D38" t="n">
-        <v>592.2313198833207</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="E38" t="n">
-        <v>592.2313198833207</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F38" t="n">
-        <v>592.2313198833207</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G38" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H38" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I38" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J38" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149082</v>
       </c>
       <c r="K38" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L38" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M38" t="n">
-        <v>862.6140377103479</v>
+        <v>862.614037710348</v>
       </c>
       <c r="N38" t="n">
         <v>1131.245262923652</v>
@@ -7201,25 +7201,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S38" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T38" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U38" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V38" t="n">
-        <v>1813.808303919614</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="W38" t="n">
-        <v>1417.41695421996</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="X38" t="n">
-        <v>1417.41695421996</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="Y38" t="n">
-        <v>1012.079684174851</v>
+        <v>461.4003478889921</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I39" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J39" t="n">
         <v>433.5238427951067</v>
       </c>
       <c r="K39" t="n">
-        <v>734.4196047863161</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L39" t="n">
-        <v>911.058455616965</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M39" t="n">
-        <v>1120.33315409798</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N39" t="n">
-        <v>1337.488135930296</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O39" t="n">
-        <v>1532.531802917783</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P39" t="n">
-        <v>1685.929917764136</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q39" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R39" t="n">
         <v>1813.808303919613</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1088.137999643809</v>
+        <v>711.6050288621311</v>
       </c>
       <c r="C40" t="n">
-        <v>916.1654365227246</v>
+        <v>711.6050288621311</v>
       </c>
       <c r="D40" t="n">
-        <v>752.8486636494953</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="E40" t="n">
-        <v>586.6404578023488</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="F40" t="n">
         <v>414.7786835769092</v>
@@ -7332,16 +7332,16 @@
         <v>36.27616607839227</v>
       </c>
       <c r="J40" t="n">
-        <v>70.15038753583896</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K40" t="n">
-        <v>138.6345353799611</v>
+        <v>259.3713614579939</v>
       </c>
       <c r="L40" t="n">
-        <v>356.3700675499419</v>
+        <v>708.2889166780983</v>
       </c>
       <c r="M40" t="n">
-        <v>805.2876227700463</v>
+        <v>1157.206471898203</v>
       </c>
       <c r="N40" t="n">
         <v>1254.205177990151</v>
@@ -7359,25 +7359,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S40" t="n">
-        <v>1802.007452933977</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T40" t="n">
-        <v>1802.007452933977</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="U40" t="n">
-        <v>1802.007452933977</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="V40" t="n">
-        <v>1747.210633220327</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="W40" t="n">
-        <v>1747.210633220327</v>
+        <v>1370.67766243865</v>
       </c>
       <c r="X40" t="n">
-        <v>1504.646736666132</v>
+        <v>1128.113765884455</v>
       </c>
       <c r="Y40" t="n">
-        <v>1278.303968355874</v>
+        <v>901.7709975741968</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>886.469516880092</v>
+        <v>862.1607364635925</v>
       </c>
       <c r="C41" t="n">
-        <v>459.568786893392</v>
+        <v>862.1607364635925</v>
       </c>
       <c r="D41" t="n">
-        <v>36.27616607839227</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E41" t="n">
-        <v>36.27616607839227</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F41" t="n">
-        <v>36.27616607839227</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G41" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H41" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I41" t="n">
         <v>68.08893453872669</v>
       </c>
       <c r="J41" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K41" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250304</v>
       </c>
       <c r="L41" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303107</v>
       </c>
       <c r="M41" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103485</v>
       </c>
       <c r="N41" t="n">
         <v>1131.245262923652</v>
@@ -7438,25 +7438,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S41" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T41" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U41" t="n">
-        <v>1813.808303919614</v>
+        <v>1282.009100755123</v>
       </c>
       <c r="V41" t="n">
-        <v>1813.808303919614</v>
+        <v>1282.009100755123</v>
       </c>
       <c r="W41" t="n">
-        <v>1813.808303919614</v>
+        <v>1282.009100755123</v>
       </c>
       <c r="X41" t="n">
-        <v>1402.088305087361</v>
+        <v>1282.009100755123</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7510350422511</v>
+        <v>1282.009100755123</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C42" t="n">
-        <v>475.9308838607421</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D42" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760276</v>
       </c>
       <c r="E42" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489648</v>
       </c>
       <c r="F42" t="n">
-        <v>173.7431613318685</v>
+        <v>173.743161331869</v>
       </c>
       <c r="G42" t="n">
-        <v>80.62417733004337</v>
+        <v>80.62417733004382</v>
       </c>
       <c r="H42" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I42" t="n">
         <v>75.26691519968659</v>
@@ -7493,25 +7493,25 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K42" t="n">
-        <v>628.9641045014108</v>
+        <v>628.9641045014113</v>
       </c>
       <c r="L42" t="n">
-        <v>805.6029553320598</v>
+        <v>805.6029553320602</v>
       </c>
       <c r="M42" t="n">
         <v>1014.877653813075</v>
       </c>
       <c r="N42" t="n">
-        <v>1232.032635645391</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O42" t="n">
         <v>1427.076302632878</v>
       </c>
       <c r="P42" t="n">
-        <v>1580.47441747923</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q42" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R42" t="n">
         <v>1813.808303919614</v>
@@ -7523,7 +7523,7 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U42" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V42" t="n">
         <v>1222.055408810128</v>
@@ -7532,10 +7532,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X42" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y42" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>380.1105034249158</v>
+        <v>602.3146273839054</v>
       </c>
       <c r="C43" t="n">
-        <v>208.1379403038318</v>
+        <v>602.3146273839054</v>
       </c>
       <c r="D43" t="n">
-        <v>208.1379403038318</v>
+        <v>438.9978545106761</v>
       </c>
       <c r="E43" t="n">
-        <v>208.1379403038318</v>
+        <v>272.7896486635296</v>
       </c>
       <c r="F43" t="n">
-        <v>36.27616607839227</v>
+        <v>272.7896486635296</v>
       </c>
       <c r="G43" t="n">
-        <v>36.27616607839227</v>
+        <v>107.3163736314356</v>
       </c>
       <c r="H43" t="n">
-        <v>36.27616607839227</v>
+        <v>107.3163736314356</v>
       </c>
       <c r="I43" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J43" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K43" t="n">
-        <v>263.8742444497198</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L43" t="n">
-        <v>356.3700675499419</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M43" t="n">
-        <v>805.2876227700463</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N43" t="n">
-        <v>1254.205177990151</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O43" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P43" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q43" t="n">
         <v>1813.808303919614</v>
@@ -7599,22 +7599,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T43" t="n">
-        <v>1601.036305910901</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U43" t="n">
-        <v>1320.894604393405</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V43" t="n">
-        <v>1039.183137001434</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="W43" t="n">
-        <v>1039.183137001434</v>
+        <v>1018.823364406229</v>
       </c>
       <c r="X43" t="n">
-        <v>796.6192404472395</v>
+        <v>1018.823364406229</v>
       </c>
       <c r="Y43" t="n">
-        <v>570.2764721369815</v>
+        <v>792.4805960959711</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>425.9840356717706</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="C44" t="n">
-        <v>425.9840356717706</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="D44" t="n">
-        <v>425.9840356717706</v>
+        <v>1167.353046890855</v>
       </c>
       <c r="E44" t="n">
-        <v>425.9840356717706</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="F44" t="n">
-        <v>425.9840356717706</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G44" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H44" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I44" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J44" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K44" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L44" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M44" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N44" t="n">
         <v>1131.245262923652</v>
@@ -7675,25 +7675,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S44" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T44" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U44" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V44" t="n">
-        <v>1243.041304549133</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="W44" t="n">
-        <v>1243.041304549133</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="X44" t="n">
-        <v>831.3213057168803</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="Y44" t="n">
-        <v>425.9840356717706</v>
+        <v>1178.486344271773</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>475.9308838607421</v>
       </c>
       <c r="D45" t="n">
-        <v>372.0909253760272</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E45" t="n">
-        <v>267.3889916489644</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F45" t="n">
         <v>173.7431613318686</v>
@@ -7724,28 +7724,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I45" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J45" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K45" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L45" t="n">
-        <v>712.4740133525838</v>
+        <v>805.60295533206</v>
       </c>
       <c r="M45" t="n">
-        <v>921.7487118335989</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.903693665915</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O45" t="n">
-        <v>1333.947360653402</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P45" t="n">
-        <v>1487.345475499754</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q45" t="n">
         <v>1674.905125453736</v>
@@ -7760,7 +7760,7 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U45" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V45" t="n">
         <v>1222.055408810128</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.6647246117145</v>
+        <v>548.3469336673</v>
       </c>
       <c r="C46" t="n">
-        <v>750.6921614906305</v>
+        <v>548.3469336673</v>
       </c>
       <c r="D46" t="n">
-        <v>587.3753886174012</v>
+        <v>548.3469336673</v>
       </c>
       <c r="E46" t="n">
-        <v>421.1671827702548</v>
+        <v>382.1387278201536</v>
       </c>
       <c r="F46" t="n">
-        <v>249.3054085448152</v>
+        <v>382.1387278201536</v>
       </c>
       <c r="G46" t="n">
-        <v>249.3054085448152</v>
+        <v>216.6654527880596</v>
       </c>
       <c r="H46" t="n">
-        <v>112.4768981516335</v>
+        <v>79.83694239487784</v>
       </c>
       <c r="I46" t="n">
         <v>36.27616607839228</v>
@@ -7809,22 +7809,22 @@
         <v>70.15038753583897</v>
       </c>
       <c r="K46" t="n">
-        <v>138.6345353799611</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L46" t="n">
-        <v>356.370067549942</v>
+        <v>834.8346997140876</v>
       </c>
       <c r="M46" t="n">
-        <v>805.2876227700464</v>
+        <v>932.8880472917068</v>
       </c>
       <c r="N46" t="n">
-        <v>1254.205177990151</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O46" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P46" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q46" t="n">
         <v>1813.808303919614</v>
@@ -7833,25 +7833,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S46" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T46" t="n">
-        <v>1581.737358188233</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U46" t="n">
-        <v>1581.737358188233</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V46" t="n">
-        <v>1581.737358188233</v>
+        <v>1292.10600235924</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.737358188233</v>
+        <v>1017.253598531753</v>
       </c>
       <c r="X46" t="n">
-        <v>1339.173461634038</v>
+        <v>774.689701977558</v>
       </c>
       <c r="Y46" t="n">
-        <v>1112.83069332378</v>
+        <v>548.3469336673</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.52577934020788</v>
+        <v>12.52577934020789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>9.571990821914873</v>
       </c>
       <c r="J12" t="n">
-        <v>2.499123417806999</v>
+        <v>2.499123417807002</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>9.273874939591311</v>
+        <v>39.74678285411823</v>
       </c>
       <c r="K13" t="n">
-        <v>2.291950357779644</v>
+        <v>2.291950357779648</v>
       </c>
       <c r="L13" t="n">
-        <v>28.49703535572707</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>27.85480815742757</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>30.25509985207435</v>
+        <v>20.58430632309666</v>
       </c>
       <c r="P13" t="n">
-        <v>2.942486473402763</v>
+        <v>33.41539438792968</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.557568291083</v>
+        <v>41.63438950416148</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>12.52577934020786</v>
+        <v>12.52577934020788</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.571990821914866</v>
+        <v>9.571990821914873</v>
       </c>
       <c r="J15" t="n">
-        <v>2.499123417806981</v>
+        <v>2.499123417806999</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.77034553962527</v>
+        <v>11.77034553962528</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>36.32187363025869</v>
+        <v>39.74678285411824</v>
       </c>
       <c r="K16" t="n">
-        <v>2.291950357779626</v>
+        <v>2.291950357779644</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>27.85480815742764</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>26.62731530405567</v>
+        <v>20.58430632309666</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.942486473402742</v>
+        <v>33.41539438792969</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.63438950416158</v>
+        <v>41.63438950416149</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541853</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9327,22 +9327,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>360.0219516362446</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
-        <v>45.34488222711929</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>147.8754625841162</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>197.1388831921431</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>200.5903457215977</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>298.5044852260119</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>366.287300401798</v>
+        <v>45.34488222711958</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5866010684577105</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>234.1036094826144</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>7.360890261673603</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.8455106078516</v>
+        <v>358.0675224703015</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>50.95854331539948</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>354.4082905479648</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>50.95854331539941</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>70.37539003541897</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>200.5903457215977</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,19 +10038,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M28" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>45.34488222711981</v>
       </c>
       <c r="P28" t="n">
-        <v>11.40031649232016</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>200.5903457215978</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>98.16789418788896</v>
       </c>
       <c r="L31" t="n">
-        <v>126.5047566361199</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>354.4082905479648</v>
@@ -10284,10 +10284,10 @@
         <v>355.4735849779358</v>
       </c>
       <c r="O31" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>275.0289943327832</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>90.39941839919146</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10512,10 +10512,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>360.0219516362447</v>
+        <v>50.95854331539945</v>
       </c>
       <c r="M34" t="n">
-        <v>45.34488222711958</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>70.37539003541875</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>197.1388831921424</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>298.5044852260119</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10752,13 +10752,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N37" t="n">
-        <v>39.07953346156646</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>366.2873004017981</v>
+        <v>50.9585433153994</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10904,10 +10904,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>176.8960973939084</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>70.37539003541784</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>43.24758528263835</v>
       </c>
       <c r="L40" t="n">
-        <v>126.5047566361199</v>
+        <v>360.0219516362446</v>
       </c>
       <c r="M40" t="n">
         <v>354.4082905479648</v>
       </c>
       <c r="N40" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>366.2873004017981</v>
+        <v>366.287300401798</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>70.37539003541826</v>
+        <v>70.37539003541872</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>47.79595194094728</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>354.4082905479648</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N43" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>366.287300401798</v>
+        <v>50.95854331539985</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>70.37539003541852</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.0696383631072</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>126.5047566361199</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M46" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>366.2873004017981</v>
+        <v>124.0536869222923</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>392.158814772306</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>414.7670622221469</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>369.4644669255939</v>
       </c>
       <c r="H11" t="n">
-        <v>260.7473782246276</v>
+        <v>285.1144083688076</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.15892952120976</v>
+        <v>64.68602160668284</v>
       </c>
       <c r="T11" t="n">
         <v>217.1478703632754</v>
@@ -23317,7 +23317,7 @@
         <v>255.7426965538458</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>323.4416128104861</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97.16483141133514</v>
+        <v>97.16483141133516</v>
       </c>
       <c r="C12" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>72.32865098534089</v>
+        <v>72.3286509853409</v>
       </c>
       <c r="E12" t="n">
-        <v>103.6549143897921</v>
+        <v>73.18200647526523</v>
       </c>
       <c r="F12" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.92152829748879</v>
+        <v>66.08099100637349</v>
       </c>
       <c r="H12" t="n">
-        <v>20.51795027185111</v>
+        <v>50.99085818637803</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>167.7156261039997</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
         <v>161.8425727710037</v>
@@ -23421,22 +23421,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>131.2106972299701</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>137.7055864975597</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>133.9607724188748</v>
+        <v>164.4336803334017</v>
       </c>
       <c r="H13" t="n">
         <v>110.456453870112</v>
       </c>
       <c r="I13" t="n">
-        <v>63.46469569968622</v>
+        <v>93.93760361421315</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>165.6327913918166</v>
       </c>
       <c r="T13" t="n">
-        <v>240.2192429564045</v>
+        <v>209.7463350418776</v>
       </c>
       <c r="U13" t="n">
         <v>277.3738374869546</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.2388033360401</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>399.9373748401208</v>
       </c>
       <c r="H14" t="n">
-        <v>260.7473782246275</v>
+        <v>291.2202861391545</v>
       </c>
       <c r="I14" t="n">
-        <v>20.73465952076843</v>
+        <v>20.73465952076845</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.15892952120976</v>
+        <v>64.68602160668283</v>
       </c>
       <c r="T14" t="n">
-        <v>186.6749624487484</v>
+        <v>186.6749624487485</v>
       </c>
       <c r="U14" t="n">
         <v>255.7426965538458</v>
@@ -23557,13 +23557,13 @@
         <v>323.441612810486</v>
       </c>
       <c r="W14" t="n">
-        <v>365.5868989115412</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>374.4433600535432</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6377393258621</v>
+        <v>97.16483141133514</v>
       </c>
       <c r="C15" t="n">
-        <v>116.3308444476703</v>
+        <v>85.85793653314333</v>
       </c>
       <c r="D15" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>76.81437709867683</v>
       </c>
       <c r="F15" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>66.0809910063734</v>
+        <v>92.92152829748879</v>
       </c>
       <c r="H15" t="n">
-        <v>20.517950271851</v>
+        <v>50.99085818637803</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,13 +23627,13 @@
         <v>76.95015442226369</v>
       </c>
       <c r="T15" t="n">
-        <v>109.2155196590631</v>
+        <v>139.6884275735902</v>
       </c>
       <c r="U15" t="n">
         <v>182.907901898041</v>
       </c>
       <c r="V15" t="n">
-        <v>172.4504995575994</v>
+        <v>172.4504995575995</v>
       </c>
       <c r="W15" t="n">
         <v>194.556163395115</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.791401110418</v>
+        <v>161.4237717338297</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>139.6702485686581</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.4336803334017</v>
@@ -23712,16 +23712,16 @@
         <v>277.3738374869546</v>
       </c>
       <c r="V16" t="n">
-        <v>252.053815426936</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>241.6309718746852</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>209.665349674126</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6064327126283</v>
+        <v>193.6064327126284</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>380.0183099878551</v>
       </c>
       <c r="H17" t="n">
         <v>277.176001558223</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>171.2047308803373</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23910,7 +23910,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.3506253068522</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.5955056988414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>147.2903397463039</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,13 +23980,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>221.4598841863648</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.7192805134388</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>217.8550282726993</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0907413514866</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U23" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>35.55784986368189</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H25" t="n">
-        <v>135.4602252892499</v>
+        <v>62.78136716885125</v>
       </c>
       <c r="I25" t="n">
         <v>75.43872475250879</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S25" t="n">
         <v>154.9126128011615</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.0673964688051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H26" t="n">
-        <v>208.8448826882639</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U26" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>176.7495962242334</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T28" t="n">
-        <v>237.5909258267186</v>
+        <v>224.9201757095897</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24666,10 +24666,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>100.6637612846484</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>177.635020222877</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>141.8864634207832</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>211.1448086517629</v>
@@ -24739,10 +24739,10 @@
         <v>255.632988972596</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>7.11310804575001</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S31" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>11.71610411606906</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>340.1745919256031</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>277.176001558223</v>
+        <v>79.03227749642173</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U32" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.11321039047465</v>
+        <v>145.4070629195112</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>27.35713754522197</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>277.176001558223</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>278.3805505114968</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T37" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V37" t="n">
-        <v>140.3008469684178</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>203.6248540349843</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25402,13 +25402,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>125.3464293658423</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>345.7480876002303</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>32.37164710080231</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.5909258267186</v>
@@ -25608,10 +25608,10 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V40" t="n">
-        <v>224.6455012015384</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>306.4711776680772</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>277.176001558223</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.632988972596</v>
+        <v>4.205997166099166</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I43" t="n">
-        <v>75.43872475250879</v>
+        <v>5.108919274995884</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T43" t="n">
-        <v>26.94664779809306</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>408.037730199741</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>12.75523917705385</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H44" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>32.31355619918809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T46" t="n">
-        <v>162.7533023538132</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81540.25328108227</v>
+        <v>81540.25328108224</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81540.25328108236</v>
+        <v>81540.25328108227</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>427646.9264669112</v>
+        <v>427646.9264669114</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>427646.9264669113</v>
+        <v>427646.9264669114</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>427646.9264669114</v>
+        <v>427646.9264669113</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>427646.9264669113</v>
+        <v>427646.9264669112</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427646.9264669113</v>
+        <v>427646.9264669114</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427646.9264669114</v>
+        <v>427646.9264669113</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>16201.47050307469</v>
       </c>
       <c r="E2" t="n">
-        <v>23766.5878097744</v>
+        <v>23766.58780977437</v>
       </c>
       <c r="F2" t="n">
-        <v>23766.58780977442</v>
+        <v>23766.58780977438</v>
       </c>
       <c r="G2" t="n">
-        <v>123015.4261233469</v>
+        <v>123015.426123347</v>
       </c>
       <c r="H2" t="n">
         <v>123015.426123347</v>
@@ -26337,13 +26337,13 @@
         <v>123015.426123347</v>
       </c>
       <c r="J2" t="n">
-        <v>123015.4261233469</v>
+        <v>123015.426123347</v>
       </c>
       <c r="K2" t="n">
         <v>123015.4261233469</v>
       </c>
       <c r="L2" t="n">
-        <v>123015.426123347</v>
+        <v>123015.4261233469</v>
       </c>
       <c r="M2" t="n">
         <v>123015.426123347</v>
@@ -26374,13 +26374,13 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>50051.6938567193</v>
+        <v>50051.69385671929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>381150.1738168484</v>
+        <v>381150.1738168488</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7593.970543931783</v>
+        <v>7593.970543931766</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>9817.757322612819</v>
       </c>
       <c r="D4" t="n">
-        <v>4298.372149429014</v>
+        <v>4298.372149429015</v>
       </c>
       <c r="E4" t="n">
-        <v>1354.444051362885</v>
+        <v>1354.444051362886</v>
       </c>
       <c r="F4" t="n">
         <v>1354.444051362886</v>
@@ -26435,13 +26435,13 @@
         <v>12863.07495534992</v>
       </c>
       <c r="H4" t="n">
-        <v>12863.07495534993</v>
+        <v>12863.07495534992</v>
       </c>
       <c r="I4" t="n">
         <v>12863.07495534992</v>
       </c>
       <c r="J4" t="n">
-        <v>12863.07495534992</v>
+        <v>12863.07495534993</v>
       </c>
       <c r="K4" t="n">
         <v>12863.07495534992</v>
@@ -26450,13 +26450,13 @@
         <v>12863.07495534992</v>
       </c>
       <c r="M4" t="n">
-        <v>12863.07495534993</v>
+        <v>12863.07495534992</v>
       </c>
       <c r="N4" t="n">
         <v>12863.07495534992</v>
       </c>
       <c r="O4" t="n">
-        <v>12863.07495534992</v>
+        <v>12863.07495534993</v>
       </c>
       <c r="P4" t="n">
         <v>12863.07495534992</v>
@@ -26478,16 +26478,16 @@
         <v>34459.30828506134</v>
       </c>
       <c r="E5" t="n">
+        <v>3795.707566887199</v>
+      </c>
+      <c r="F5" t="n">
         <v>3795.7075668872</v>
       </c>
-      <c r="F5" t="n">
-        <v>3795.707566887209</v>
-      </c>
       <c r="G5" t="n">
-        <v>36949.30081304153</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="H5" t="n">
-        <v>36949.30081304154</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
         <v>36949.30081304155</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27736.94560643231</v>
+        <v>-29094.87470323409</v>
       </c>
       <c r="C6" t="n">
-        <v>-27736.94560643231</v>
+        <v>-29094.87470323409</v>
       </c>
       <c r="D6" t="n">
-        <v>-55229.90806180638</v>
+        <v>-56584.75554119008</v>
       </c>
       <c r="E6" t="n">
-        <v>-31435.25766519499</v>
+        <v>-32742.82316141182</v>
       </c>
       <c r="F6" t="n">
-        <v>18616.43619152432</v>
+        <v>17308.87069530747</v>
       </c>
       <c r="G6" t="n">
-        <v>-307947.1234618929</v>
+        <v>-308634.3837186503</v>
       </c>
       <c r="H6" t="n">
-        <v>73203.05035495557</v>
+        <v>72515.7900981985</v>
       </c>
       <c r="I6" t="n">
-        <v>73203.05035495557</v>
+        <v>72515.79009819853</v>
       </c>
       <c r="J6" t="n">
-        <v>73203.05035495546</v>
+        <v>72515.79009819854</v>
       </c>
       <c r="K6" t="n">
-        <v>73203.05035495546</v>
+        <v>72515.79009819849</v>
       </c>
       <c r="L6" t="n">
-        <v>73203.05035495557</v>
+        <v>72515.79009819849</v>
       </c>
       <c r="M6" t="n">
-        <v>65609.07981102374</v>
+        <v>64921.81955426673</v>
       </c>
       <c r="N6" t="n">
-        <v>73203.05035495554</v>
+        <v>72515.79009819851</v>
       </c>
       <c r="O6" t="n">
-        <v>-28587.30941914534</v>
+        <v>-29274.56967590245</v>
       </c>
       <c r="P6" t="n">
-        <v>73203.05035495549</v>
+        <v>72515.7900981985</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
+        <v>89.12636539834692</v>
+      </c>
+      <c r="F3" t="n">
         <v>89.12636539834693</v>
       </c>
-      <c r="F3" t="n">
-        <v>89.12636539834703</v>
-      </c>
       <c r="G3" t="n">
-        <v>430.2483758469459</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469459</v>
+        <v>430.248375846946</v>
       </c>
       <c r="I3" t="n">
         <v>430.248375846946</v>
       </c>
       <c r="J3" t="n">
+        <v>430.248375846946</v>
+      </c>
+      <c r="K3" t="n">
         <v>430.2483758469461</v>
       </c>
-      <c r="K3" t="n">
-        <v>430.248375846946</v>
-      </c>
       <c r="L3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="M3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="N3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="O3" t="n">
         <v>430.2483758469461</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>30.47290791452692</v>
+      </c>
+      <c r="F4" t="n">
         <v>30.47290791452693</v>
       </c>
-      <c r="F4" t="n">
-        <v>30.47290791452703</v>
-      </c>
       <c r="G4" t="n">
-        <v>453.4520759799032</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="I4" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="J4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="K4" t="n">
         <v>453.4520759799034</v>
@@ -26828,7 +26828,7 @@
         <v>453.4520759799034</v>
       </c>
       <c r="O4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P4" t="n">
         <v>453.4520759799034</v>
@@ -26968,13 +26968,13 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>50.97460920287288</v>
+        <v>50.97460920287286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>341.1220104485988</v>
+        <v>341.1220104485992</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>30.47290791452693</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>422.9791680653762</v>
+        <v>422.9791680653765</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>30.47290791452698</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>422.9791680653762</v>
+        <v>422.9791680653766</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>30.47290791452693</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>422.9791680653762</v>
+        <v>422.9791680653765</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31761,31 +31761,31 @@
         <v>13.81324302319506</v>
       </c>
       <c r="J11" t="n">
-        <v>30.41000544815256</v>
+        <v>30.41000544815255</v>
       </c>
       <c r="K11" t="n">
-        <v>45.57671518609035</v>
+        <v>45.57671518609034</v>
       </c>
       <c r="L11" t="n">
-        <v>56.54194535718446</v>
+        <v>56.54194535718445</v>
       </c>
       <c r="M11" t="n">
-        <v>62.9138086763919</v>
+        <v>62.91380867639189</v>
       </c>
       <c r="N11" t="n">
-        <v>63.93181987513785</v>
+        <v>63.93181987513784</v>
       </c>
       <c r="O11" t="n">
-        <v>60.3690046151185</v>
+        <v>60.36900461511849</v>
       </c>
       <c r="P11" t="n">
-        <v>51.52354875271975</v>
+        <v>51.52354875271974</v>
       </c>
       <c r="Q11" t="n">
-        <v>38.69203936245523</v>
+        <v>38.69203936245522</v>
       </c>
       <c r="R11" t="n">
-        <v>22.50687055458859</v>
+        <v>22.50687055458858</v>
       </c>
       <c r="S11" t="n">
         <v>8.16469166438123</v>
@@ -31794,7 +31794,7 @@
         <v>1.568444882537743</v>
       </c>
       <c r="U11" t="n">
-        <v>0.028663755706001</v>
+        <v>0.02866375570600099</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>0.1917057670832368</v>
       </c>
       <c r="H12" t="n">
-        <v>1.851474118935472</v>
+        <v>1.851474118935471</v>
       </c>
       <c r="I12" t="n">
-        <v>6.600395928085128</v>
+        <v>6.600395928085127</v>
       </c>
       <c r="J12" t="n">
-        <v>18.11199091552634</v>
+        <v>18.11199091552633</v>
       </c>
       <c r="K12" t="n">
         <v>30.9562773101032</v>
       </c>
       <c r="L12" t="n">
-        <v>41.62453508533175</v>
+        <v>41.62453508533174</v>
       </c>
       <c r="M12" t="n">
-        <v>48.57386914209907</v>
+        <v>48.57386914209906</v>
       </c>
       <c r="N12" t="n">
-        <v>49.85947492223184</v>
+        <v>49.85947492223183</v>
       </c>
       <c r="O12" t="n">
         <v>45.6116787147559</v>
       </c>
       <c r="P12" t="n">
-        <v>36.60739336521915</v>
+        <v>36.60739336521914</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.4710730052216</v>
+        <v>24.47107300522159</v>
       </c>
       <c r="R12" t="n">
         <v>11.90257385451886</v>
       </c>
       <c r="S12" t="n">
-        <v>3.560850542094331</v>
+        <v>3.56085054209433</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7727087717083094</v>
+        <v>0.7727087717083093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01261222151863401</v>
+        <v>0.012612221518634</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1607196753084945</v>
+        <v>0.1607196753084944</v>
       </c>
       <c r="H13" t="n">
-        <v>1.428944022288252</v>
+        <v>1.428944022288251</v>
       </c>
       <c r="I13" t="n">
-        <v>4.833278962913635</v>
+        <v>4.833278962913634</v>
       </c>
       <c r="J13" t="n">
         <v>11.36288104431056</v>
@@ -31925,13 +31925,13 @@
         <v>18.67270409493235</v>
       </c>
       <c r="L13" t="n">
-        <v>23.89463245450108</v>
+        <v>23.89463245450107</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19353964858518</v>
+        <v>25.19353964858517</v>
       </c>
       <c r="N13" t="n">
-        <v>24.59449358607172</v>
+        <v>24.59449358607171</v>
       </c>
       <c r="O13" t="n">
         <v>22.71699556087702</v>
@@ -31940,16 +31940,16 @@
         <v>19.43831418458372</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.45808117515039</v>
+        <v>13.45808117515038</v>
       </c>
       <c r="R13" t="n">
-        <v>7.226541037052849</v>
+        <v>7.226541037052848</v>
       </c>
       <c r="S13" t="n">
-        <v>2.800905614239853</v>
+        <v>2.800905614239852</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6867113399544761</v>
+        <v>0.686711339954476</v>
       </c>
       <c r="U13" t="n">
         <v>0.008766527744099707</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3582969463250129</v>
+        <v>0.3582969463250125</v>
       </c>
       <c r="H14" t="n">
-        <v>3.669408601551039</v>
+        <v>3.669408601551035</v>
       </c>
       <c r="I14" t="n">
-        <v>13.81324302319507</v>
+        <v>13.81324302319506</v>
       </c>
       <c r="J14" t="n">
-        <v>30.41000544815259</v>
+        <v>30.41000544815256</v>
       </c>
       <c r="K14" t="n">
-        <v>45.5767151860904</v>
+        <v>45.57671518609035</v>
       </c>
       <c r="L14" t="n">
-        <v>56.54194535718452</v>
+        <v>56.54194535718446</v>
       </c>
       <c r="M14" t="n">
-        <v>62.91380867639197</v>
+        <v>62.9138086763919</v>
       </c>
       <c r="N14" t="n">
-        <v>63.93181987513792</v>
+        <v>63.93181987513785</v>
       </c>
       <c r="O14" t="n">
-        <v>60.36900461511857</v>
+        <v>60.3690046151185</v>
       </c>
       <c r="P14" t="n">
-        <v>51.5235487527198</v>
+        <v>51.52354875271975</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.69203936245527</v>
+        <v>38.69203936245523</v>
       </c>
       <c r="R14" t="n">
-        <v>22.50687055458861</v>
+        <v>22.50687055458859</v>
       </c>
       <c r="S14" t="n">
-        <v>8.164691664381241</v>
+        <v>8.16469166438123</v>
       </c>
       <c r="T14" t="n">
-        <v>1.568444882537745</v>
+        <v>1.568444882537743</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02866375570600103</v>
+        <v>0.028663755706001</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.191705767083237</v>
+        <v>0.1917057670832368</v>
       </c>
       <c r="H15" t="n">
-        <v>1.851474118935474</v>
+        <v>1.851474118935472</v>
       </c>
       <c r="I15" t="n">
-        <v>6.600395928085135</v>
+        <v>6.600395928085128</v>
       </c>
       <c r="J15" t="n">
-        <v>18.11199091552636</v>
+        <v>18.11199091552634</v>
       </c>
       <c r="K15" t="n">
-        <v>30.95627731010324</v>
+        <v>30.9562773101032</v>
       </c>
       <c r="L15" t="n">
-        <v>41.62453508533179</v>
+        <v>41.62453508533175</v>
       </c>
       <c r="M15" t="n">
-        <v>48.57386914209913</v>
+        <v>48.57386914209907</v>
       </c>
       <c r="N15" t="n">
-        <v>49.8594749222319</v>
+        <v>49.85947492223184</v>
       </c>
       <c r="O15" t="n">
-        <v>45.61167871475596</v>
+        <v>45.6116787147559</v>
       </c>
       <c r="P15" t="n">
-        <v>36.60739336521918</v>
+        <v>36.60739336521915</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.47107300522163</v>
+        <v>24.4710730052216</v>
       </c>
       <c r="R15" t="n">
-        <v>11.90257385451888</v>
+        <v>11.90257385451886</v>
       </c>
       <c r="S15" t="n">
-        <v>3.560850542094335</v>
+        <v>3.560850542094331</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7727087717083103</v>
+        <v>0.7727087717083094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01261222151863402</v>
+        <v>0.01261222151863401</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1607196753084946</v>
+        <v>0.1607196753084945</v>
       </c>
       <c r="H16" t="n">
-        <v>1.428944022288253</v>
+        <v>1.428944022288252</v>
       </c>
       <c r="I16" t="n">
-        <v>4.83327896291364</v>
+        <v>4.833278962913635</v>
       </c>
       <c r="J16" t="n">
-        <v>11.36288104431057</v>
+        <v>11.36288104431056</v>
       </c>
       <c r="K16" t="n">
-        <v>18.67270409493237</v>
+        <v>18.67270409493235</v>
       </c>
       <c r="L16" t="n">
-        <v>23.89463245450111</v>
+        <v>23.89463245450108</v>
       </c>
       <c r="M16" t="n">
-        <v>25.1935396485852</v>
+        <v>25.19353964858518</v>
       </c>
       <c r="N16" t="n">
-        <v>24.59449358607175</v>
+        <v>24.59449358607172</v>
       </c>
       <c r="O16" t="n">
-        <v>22.71699556087705</v>
+        <v>22.71699556087702</v>
       </c>
       <c r="P16" t="n">
-        <v>19.43831418458374</v>
+        <v>19.43831418458372</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.4580811751504</v>
+        <v>13.45808117515039</v>
       </c>
       <c r="R16" t="n">
-        <v>7.226541037052857</v>
+        <v>7.226541037052849</v>
       </c>
       <c r="S16" t="n">
-        <v>2.800905614239856</v>
+        <v>2.800905614239853</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6867113399544769</v>
+        <v>0.6867113399544761</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008766527744099717</v>
+        <v>0.008766527744099707</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
-        <v>17.71369318248254</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985682</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0169119161445</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L17" t="n">
-        <v>272.9504344581584</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M17" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
-        <v>308.624294767076</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.4251699938979</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7818464210729</v>
@@ -32262,10 +32262,10 @@
         <v>108.6496061881235</v>
       </c>
       <c r="S17" t="n">
-        <v>39.41421051100414</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050271</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651289</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179009</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432571</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659492</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
       </c>
       <c r="L18" t="n">
-        <v>200.9381683613496</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
-        <v>240.6914947108306</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O18" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P18" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027706</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
-        <v>17.18964029916806</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.73017223965418</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928482</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371154</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677267</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445405</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596666</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32405,28 +32405,28 @@
         <v>121.6192253234244</v>
       </c>
       <c r="N19" t="n">
-        <v>118.7273919775679</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O19" t="n">
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701254</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288883</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
-        <v>34.88538470391793</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S19" t="n">
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838816</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,31 +32466,31 @@
         <v>1.72964171194752</v>
       </c>
       <c r="H20" t="n">
-        <v>17.71369318248254</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985682</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0169119161445</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L20" t="n">
-        <v>272.9504344581584</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.624294767076</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938979</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32499,10 +32499,10 @@
         <v>108.6496061881235</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100414</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050271</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651289</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179009</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432571</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659492</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
       </c>
       <c r="L21" t="n">
-        <v>200.9381683613496</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
         <v>234.4853648365855</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108306</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027706</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S21" t="n">
-        <v>17.18964029916806</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.73017223965418</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928482</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371154</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677267</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445405</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596666</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32642,19 +32642,19 @@
         <v>121.6192253234244</v>
       </c>
       <c r="N22" t="n">
-        <v>118.7273919775679</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O22" t="n">
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701254</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288883</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391793</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S22" t="n">
         <v>13.521084204895</v>
@@ -32663,7 +32663,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838816</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I23" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J23" t="n">
         <v>146.801178249406</v>
@@ -32718,7 +32718,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M23" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N23" t="n">
         <v>308.6242947670762</v>
@@ -32727,7 +32727,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P23" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7818464210729</v>
@@ -32739,7 +32739,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T23" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U23" t="n">
         <v>0.1383713369558016</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H24" t="n">
         <v>8.937801166179012</v>
@@ -32788,7 +32788,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J24" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K24" t="n">
         <v>149.4382495618586</v>
@@ -32803,22 +32803,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O24" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P24" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R24" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S24" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T24" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U24" t="n">
         <v>0.06088420412928484</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H25" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I25" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J25" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K25" t="n">
         <v>90.14056136596669</v>
@@ -32885,7 +32885,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P25" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q25" t="n">
         <v>64.96750475288884</v>
@@ -32900,7 +32900,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H26" t="n">
         <v>17.71369318248255</v>
@@ -32961,7 +32961,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O26" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P26" t="n">
         <v>248.7246402301936</v>
@@ -32976,7 +32976,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T26" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U26" t="n">
         <v>0.1383713369558016</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H27" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I27" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J27" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K27" t="n">
         <v>149.4382495618586</v>
@@ -33034,7 +33034,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M27" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N27" t="n">
         <v>240.6914947108307</v>
@@ -33049,7 +33049,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R27" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S27" t="n">
         <v>17.18964029916807</v>
@@ -33058,7 +33058,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H28" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I28" t="n">
         <v>23.332157824618</v>
@@ -33107,7 +33107,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K28" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L28" t="n">
         <v>115.3488842393599</v>
@@ -33122,10 +33122,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P28" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R28" t="n">
         <v>34.88538470391794</v>
@@ -33134,10 +33134,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T28" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H29" t="n">
         <v>17.71369318248255</v>
@@ -33198,7 +33198,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O29" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P29" t="n">
         <v>248.7246402301936</v>
@@ -33213,7 +33213,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T29" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U29" t="n">
         <v>0.1383713369558016</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H30" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I30" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J30" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K30" t="n">
         <v>149.4382495618586</v>
@@ -33271,7 +33271,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M30" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N30" t="n">
         <v>240.6914947108307</v>
@@ -33286,7 +33286,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R30" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S30" t="n">
         <v>17.18964029916807</v>
@@ -33295,7 +33295,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H31" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I31" t="n">
         <v>23.332157824618</v>
@@ -33344,7 +33344,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K31" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L31" t="n">
         <v>115.3488842393599</v>
@@ -33359,10 +33359,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P31" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R31" t="n">
         <v>34.88538470391794</v>
@@ -33371,10 +33371,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T31" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H32" t="n">
         <v>17.71369318248255</v>
@@ -33435,7 +33435,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O32" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P32" t="n">
         <v>248.7246402301936</v>
@@ -33450,7 +33450,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T32" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U32" t="n">
         <v>0.1383713369558016</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H33" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I33" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J33" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K33" t="n">
         <v>149.4382495618586</v>
@@ -33508,7 +33508,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M33" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N33" t="n">
         <v>240.6914947108307</v>
@@ -33523,7 +33523,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R33" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S33" t="n">
         <v>17.18964029916807</v>
@@ -33532,7 +33532,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H34" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I34" t="n">
         <v>23.332157824618</v>
@@ -33581,7 +33581,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K34" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L34" t="n">
         <v>115.3488842393599</v>
@@ -33596,10 +33596,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P34" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R34" t="n">
         <v>34.88538470391794</v>
@@ -33608,10 +33608,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T34" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H35" t="n">
         <v>17.71369318248255</v>
@@ -33672,7 +33672,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O35" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P35" t="n">
         <v>248.7246402301936</v>
@@ -33687,7 +33687,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T35" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U35" t="n">
         <v>0.1383713369558016</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H36" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I36" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J36" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K36" t="n">
         <v>149.4382495618586</v>
@@ -33745,7 +33745,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M36" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N36" t="n">
         <v>240.6914947108307</v>
@@ -33760,7 +33760,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R36" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S36" t="n">
         <v>17.18964029916807</v>
@@ -33769,7 +33769,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H37" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I37" t="n">
         <v>23.332157824618</v>
@@ -33818,7 +33818,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K37" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L37" t="n">
         <v>115.3488842393599</v>
@@ -33833,10 +33833,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P37" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R37" t="n">
         <v>34.88538470391794</v>
@@ -33845,10 +33845,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T37" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H38" t="n">
         <v>17.71369318248255</v>
@@ -33909,7 +33909,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O38" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P38" t="n">
         <v>248.7246402301936</v>
@@ -33924,7 +33924,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T38" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U38" t="n">
         <v>0.1383713369558016</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H39" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I39" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J39" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K39" t="n">
         <v>149.4382495618586</v>
@@ -33982,7 +33982,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M39" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N39" t="n">
         <v>240.6914947108307</v>
@@ -33997,7 +33997,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R39" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S39" t="n">
         <v>17.18964029916807</v>
@@ -34006,7 +34006,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H40" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I40" t="n">
         <v>23.332157824618</v>
@@ -34055,7 +34055,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K40" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L40" t="n">
         <v>115.3488842393599</v>
@@ -34070,10 +34070,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P40" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R40" t="n">
         <v>34.88538470391794</v>
@@ -34082,10 +34082,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T40" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9900459625660361</v>
+        <v>0.9900459625660289</v>
       </c>
       <c r="K11" t="n">
-        <v>9.812114391281007</v>
+        <v>9.812114391281</v>
       </c>
       <c r="L11" t="n">
-        <v>18.22990292456154</v>
+        <v>18.22990292456153</v>
       </c>
       <c r="M11" t="n">
-        <v>25.48254577696009</v>
+        <v>25.48254577696008</v>
       </c>
       <c r="N11" t="n">
         <v>26.65219704069182</v>
       </c>
       <c r="O11" t="n">
-        <v>22.9780452590944</v>
+        <v>22.97804525909439</v>
       </c>
       <c r="P11" t="n">
-        <v>13.94818694248845</v>
+        <v>13.94818694248844</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.567364757857185</v>
+        <v>2.567364757857177</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>8.557043476769863</v>
+        <v>8.557043476769859</v>
       </c>
       <c r="L12" t="n">
         <v>19.10944837110219</v>
@@ -35500,16 +35500,16 @@
         <v>25.47708862977109</v>
       </c>
       <c r="N12" t="n">
-        <v>28.51644670869018</v>
+        <v>28.51644670869017</v>
       </c>
       <c r="O12" t="n">
-        <v>22.43978899253368</v>
+        <v>22.43978899253367</v>
       </c>
       <c r="P12" t="n">
         <v>14.83655216039048</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7240347162431</v>
+        <v>1.724034716243096</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>30.47290791452693</v>
+        <v>1.975872558799853</v>
       </c>
       <c r="M13" t="n">
-        <v>30.47290791452693</v>
+        <v>2.618099757099355</v>
       </c>
       <c r="N13" t="n">
-        <v>3.845592610471325</v>
+        <v>3.845592610471321</v>
       </c>
       <c r="O13" t="n">
-        <v>30.47290791452693</v>
+        <v>20.80211438554923</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.39608670144844</v>
+        <v>30.47290791452692</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.990045962566068</v>
+        <v>0.9900459625660361</v>
       </c>
       <c r="K14" t="n">
-        <v>9.812114391281057</v>
+        <v>9.812114391281007</v>
       </c>
       <c r="L14" t="n">
-        <v>18.2299029245616</v>
+        <v>18.22990292456154</v>
       </c>
       <c r="M14" t="n">
-        <v>25.48254577696016</v>
+        <v>25.48254577696009</v>
       </c>
       <c r="N14" t="n">
-        <v>26.6521970406919</v>
+        <v>26.65219704069182</v>
       </c>
       <c r="O14" t="n">
-        <v>22.97804525909447</v>
+        <v>22.9780452590944</v>
       </c>
       <c r="P14" t="n">
-        <v>13.9481869424885</v>
+        <v>13.94818694248845</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.567364757857227</v>
+        <v>2.567364757857185</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>8.557043476769898</v>
+        <v>8.557043476769863</v>
       </c>
       <c r="L15" t="n">
-        <v>19.10944837110224</v>
+        <v>19.10944837110219</v>
       </c>
       <c r="M15" t="n">
-        <v>25.47708862977115</v>
+        <v>25.47708862977109</v>
       </c>
       <c r="N15" t="n">
-        <v>28.51644670869023</v>
+        <v>28.51644670869018</v>
       </c>
       <c r="O15" t="n">
-        <v>22.43978899253374</v>
+        <v>22.43978899253368</v>
       </c>
       <c r="P15" t="n">
-        <v>14.83655216039052</v>
+        <v>14.83655216039048</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.724034716243128</v>
+        <v>1.7240347162431</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.04799869066739</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.975872558799885</v>
+        <v>1.975872558799857</v>
       </c>
       <c r="M16" t="n">
-        <v>30.47290791452703</v>
+        <v>2.618099757099358</v>
       </c>
       <c r="N16" t="n">
-        <v>30.47290791452703</v>
+        <v>24.42989893356799</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2178080624525975</v>
+        <v>0.2178080624525727</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.47290791452703</v>
+        <v>30.47290791452693</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589332</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J17" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K17" t="n">
-        <v>184.2523111213351</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255355</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535733</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
-        <v>271.34467193263</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378738</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.6571718164748</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332701</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201444</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
-        <v>178.42308164712</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>211.3885843242575</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
-        <v>219.3484664972889</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378652</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
@@ -35986,7 +35986,7 @@
         <v>165.7599435450203</v>
       </c>
       <c r="R18" t="n">
-        <v>140.3062408746236</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>453.4520759799032</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
-        <v>144.3886676590578</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N19" t="n">
-        <v>97.97849100196754</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
-        <v>87.16477557810532</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438822</v>
+        <v>219.3311273731423</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589332</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213351</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255355</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535733</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N20" t="n">
-        <v>271.34467193263</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.0342106378738</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.6571718164748</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332701</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.69034674432571</v>
+        <v>15.69034674432572</v>
       </c>
       <c r="J21" t="n">
-        <v>263.9615449354047</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>178.42308164712</v>
+        <v>379.0134273687178</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242575</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>219.3484664972889</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378652</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P21" t="n">
-        <v>453.4520759799033</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960182</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R21" t="n">
-        <v>33.78553351613292</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>93.43012434365866</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799033</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N22" t="n">
-        <v>97.97849100196754</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799033</v>
+        <v>132.5096578052249</v>
       </c>
       <c r="P22" t="n">
-        <v>72.04226585748377</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q22" t="n">
         <v>193.2504645920423</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J23" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K23" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L23" t="n">
         <v>234.6383920255356</v>
@@ -36369,19 +36369,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N23" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O23" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P23" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q23" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R23" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J24" t="n">
-        <v>66.82266174326162</v>
+        <v>66.82266174326163</v>
       </c>
       <c r="K24" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L24" t="n">
         <v>178.4230816471201</v>
@@ -36448,19 +36448,19 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N24" t="n">
-        <v>453.4520759799034</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O24" t="n">
         <v>197.0138050378653</v>
       </c>
       <c r="P24" t="n">
-        <v>154.9475907538915</v>
+        <v>162.3084810155651</v>
       </c>
       <c r="Q24" t="n">
-        <v>333.2300641174534</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="R24" t="n">
-        <v>33.78553351613293</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L25" t="n">
-        <v>144.3886676590582</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M25" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="N25" t="n">
-        <v>97.97849100196757</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O25" t="n">
-        <v>87.16477557810535</v>
+        <v>138.1233188935048</v>
       </c>
       <c r="P25" t="n">
         <v>387.3710229438823</v>
@@ -36600,16 +36600,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L26" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M26" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N26" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O26" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P26" t="n">
         <v>211.1492784199623</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J27" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K27" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639442</v>
       </c>
       <c r="L27" t="n">
         <v>178.4230816471201</v>
@@ -36688,16 +36688,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O27" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P27" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q27" t="n">
-        <v>295.9748992311996</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R27" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L28" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M28" t="n">
-        <v>453.4520759799034</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N28" t="n">
-        <v>453.4520759799034</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O28" t="n">
-        <v>87.16477557810538</v>
+        <v>132.5096578052252</v>
       </c>
       <c r="P28" t="n">
-        <v>82.85598128134626</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q28" t="n">
         <v>193.2504645920423</v>
@@ -36837,16 +36837,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L29" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M29" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N29" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O29" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P29" t="n">
         <v>211.1492784199623</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J30" t="n">
         <v>361.8756844398183</v>
@@ -36925,16 +36925,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O30" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P30" t="n">
-        <v>355.5379364754893</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R30" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K31" t="n">
-        <v>69.17590691325469</v>
+        <v>167.3438011011437</v>
       </c>
       <c r="L31" t="n">
-        <v>219.9348809797786</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M31" t="n">
         <v>453.4520759799034</v>
@@ -37004,13 +37004,13 @@
         <v>453.4520759799034</v>
       </c>
       <c r="O31" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P31" t="n">
-        <v>71.45566478902609</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L32" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M32" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N32" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O32" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P32" t="n">
         <v>211.1492784199623</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J33" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K33" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L33" t="n">
-        <v>453.4520759799034</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M33" t="n">
         <v>211.3885843242576</v>
       </c>
       <c r="N33" t="n">
-        <v>309.7478848964805</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O33" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P33" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q33" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R33" t="n">
         <v>140.3062408746237</v>
@@ -37232,16 +37232,16 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L34" t="n">
+        <v>144.3886676590582</v>
+      </c>
+      <c r="M34" t="n">
         <v>453.4520759799034</v>
       </c>
-      <c r="M34" t="n">
-        <v>144.3886676590582</v>
-      </c>
       <c r="N34" t="n">
-        <v>97.97849100196758</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O34" t="n">
-        <v>87.16477557810536</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P34" t="n">
         <v>387.3710229438823</v>
@@ -37311,16 +37311,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L35" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M35" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N35" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O35" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P35" t="n">
         <v>211.1492784199623</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>39.38459507201445</v>
+        <v>15.69034674432573</v>
       </c>
       <c r="J36" t="n">
-        <v>361.8756844398183</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K36" t="n">
-        <v>197.414405763944</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L36" t="n">
-        <v>178.4230816471201</v>
+        <v>375.5619648392625</v>
       </c>
       <c r="M36" t="n">
         <v>211.3885843242576</v>
@@ -37399,16 +37399,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O36" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P36" t="n">
-        <v>154.9475907538915</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.38455350960186</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R36" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,13 +37472,13 @@
         <v>93.43012434365872</v>
       </c>
       <c r="M37" t="n">
-        <v>99.04378543193859</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N37" t="n">
-        <v>137.058024463534</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O37" t="n">
-        <v>453.4520759799034</v>
+        <v>138.1233188935048</v>
       </c>
       <c r="P37" t="n">
         <v>387.3710229438823</v>
@@ -37548,16 +37548,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L38" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M38" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N38" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O38" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P38" t="n">
         <v>211.1492784199623</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J39" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K39" t="n">
-        <v>303.9351131224337</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L39" t="n">
-        <v>178.4230816471201</v>
+        <v>248.798471682538</v>
       </c>
       <c r="M39" t="n">
         <v>211.3885843242576</v>
@@ -37636,16 +37636,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O39" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P39" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q39" t="n">
-        <v>95.38455350960186</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R39" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K40" t="n">
-        <v>69.17590691325469</v>
+        <v>112.4234921958931</v>
       </c>
       <c r="L40" t="n">
-        <v>219.9348809797786</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M40" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="N40" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O40" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="P40" t="n">
-        <v>71.45566478902609</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K42" t="n">
-        <v>197.4144057639436</v>
+        <v>197.414405763944</v>
       </c>
       <c r="L42" t="n">
         <v>178.4230816471201</v>
@@ -37940,25 +37940,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K43" t="n">
-        <v>116.971858854202</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L43" t="n">
         <v>93.43012434365872</v>
       </c>
       <c r="M43" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N43" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O43" t="n">
-        <v>453.4520759799034</v>
+        <v>138.1233188935052</v>
       </c>
       <c r="P43" t="n">
-        <v>71.4556647890261</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.34794198810391</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J45" t="n">
         <v>361.8756844398183</v>
@@ -38101,7 +38101,7 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L45" t="n">
-        <v>178.4230816471201</v>
+        <v>248.7984716825387</v>
       </c>
       <c r="M45" t="n">
         <v>211.3885843242576</v>
@@ -38116,7 +38116,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.4541918727091</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R45" t="n">
         <v>140.3062408746237</v>
@@ -38177,25 +38177,25 @@
         <v>34.21638531055221</v>
       </c>
       <c r="K46" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L46" t="n">
-        <v>219.9348809797786</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M46" t="n">
-        <v>453.4520759799034</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N46" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O46" t="n">
-        <v>453.4520759799034</v>
+        <v>211.2184625003977</v>
       </c>
       <c r="P46" t="n">
-        <v>71.4556647890261</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.34794198810391</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
